--- a/URS/DbLayouts/L3-帳務作業/LoanSyndItem.xlsx
+++ b/URS/DbLayouts/L3-帳務作業/LoanSyndItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65209D3-5021-4279-ADEC-46BCD2EBAA37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678661A3-AC88-47FE-B626-93973F348447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>備註說明</t>
   </si>
@@ -62,9 +62,6 @@
     <t>最後更新人員</t>
   </si>
   <si>
-    <t>借款人戶號</t>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +120,6 @@
     <t>DECIMAL</t>
   </si>
   <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,79 +135,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>項別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanSyndItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸案費用檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyndSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸案編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>聯貸案序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聯貸案動撥條件檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>項別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率基準</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動用日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaturityDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMALD</t>
-  </si>
-  <si>
-    <t>CustNo,SyndNo,Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoanSyndItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findSyndNo</t>
+    <t>SyndNo,SyndSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyndAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyndMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyndBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已銷金額</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyndNo =</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo = ,AND SyndNo =</t>
+    <t>findSyndNoEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Item asc</t>
+    <t>SyndSeq Asc</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -392,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,9 +441,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,17 +453,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -837,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -850,118 +844,118 @@
     <col min="3" max="3" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" style="30" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="32"/>
       <c r="C1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -982,7 +976,7 @@
       <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -991,17 +985,17 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>26</v>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="23">
+        <v>6</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="5"/>
@@ -1012,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -1032,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="17">
         <v>10</v>
@@ -1048,23 +1042,23 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <f t="shared" ref="A12:A19" si="0">A11+1</f>
+        <f t="shared" ref="A12:A18" si="0">A11+1</f>
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="26">
-        <v>6</v>
-      </c>
-      <c r="F12" s="26">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="28">
+        <v>16</v>
+      </c>
+      <c r="F12" s="28">
+        <v>2</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="5"/>
@@ -1075,20 +1069,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="27">
-        <v>6</v>
-      </c>
-      <c r="F13" s="27">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="28">
+        <v>40</v>
+      </c>
+      <c r="F13" s="23"/>
       <c r="G13" s="10"/>
       <c r="H13" s="5"/>
     </row>
@@ -1098,113 +1090,96 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="24">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="25">
+        <v>16</v>
+      </c>
+      <c r="F14" s="25">
+        <v>2</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
+      <c r="B15" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="25">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <f>A15+1</f>
-        <v>8</v>
-      </c>
       <c r="B16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1226,9 +1201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1241,7 +1216,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -1252,13 +1227,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
